--- a/data/trans_orig/iP30B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2EF6C6-26CC-4B72-BD4E-C9116D86D449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CE947E-196B-4FA3-A3D2-D1199D17F84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E8340773-A1E5-45CE-AA0C-EA51385323E7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1F81C4-383E-4C29-B636-3357EB245D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,21 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>5,0%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
     <t>3,79%</t>
   </si>
   <si>
@@ -98,15 +209,9 @@
     <t>6,73%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
     <t>97,09%</t>
   </si>
   <si>
@@ -128,58 +233,61 @@
     <t>96,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -197,9 +305,6 @@
     <t>8,33%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
     <t>12,46%</t>
   </si>
   <si>
@@ -227,9 +332,6 @@
     <t>87,54%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
     <t>91,77%</t>
   </si>
   <si>
@@ -237,108 +339,6 @@
   </si>
   <si>
     <t>94,06%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5997FD-643E-40D5-97D7-5B17E408F828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEF9CA6-B43E-49AE-A7BB-5096342A7A85}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12146</v>
+        <v>503</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -917,85 +917,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>7130</v>
+        <v>977</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1479</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19276</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10894</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>308</v>
-      </c>
-      <c r="D5" s="7">
-        <v>230767</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15022</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>256</v>
-      </c>
-      <c r="I5" s="7">
-        <v>180787</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>40</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25916</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>564</v>
-      </c>
-      <c r="N5" s="7">
-        <v>411554</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1004,54 +1004,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1063,13 +1063,13 @@
         <v>12175</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -1078,13 +1078,13 @@
         <v>8251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -1093,19 +1093,19 @@
         <v>20426</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>137</v>
@@ -1114,13 +1114,13 @@
         <v>100273</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -1129,7 +1129,7 @@
         <v>93384</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
@@ -1165,13 +1165,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1180,13 +1180,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1195,13 +1195,13 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>13934</v>
+        <v>12146</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1224,88 +1224,88 @@
         <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7130</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14037</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>29</v>
+      </c>
+      <c r="N10" s="7">
+        <v>19276</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="7">
-        <v>40</v>
-      </c>
-      <c r="N10" s="7">
-        <v>27971</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="D11" s="7">
-        <v>157522</v>
+        <v>230767</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>256</v>
+      </c>
+      <c r="I11" s="7">
+        <v>180787</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="7">
-        <v>215</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154453</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>564</v>
+      </c>
+      <c r="N11" s="7">
+        <v>411554</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="7">
-        <v>427</v>
-      </c>
-      <c r="N11" s="7">
-        <v>311976</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1314,96 +1314,96 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>503</v>
+        <v>10307</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15411</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>977</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>36</v>
+      </c>
+      <c r="N13" s="7">
+        <v>25717</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1479</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>73</v>
@@ -1415,13 +1415,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>10894</v>
+        <v>160812</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -1433,10 +1433,10 @@
         <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>15022</v>
+        <v>151157</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
@@ -1445,22 +1445,22 @@
         <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>25916</v>
+        <v>311970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,144 +1469,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>10307</v>
+        <v>13934</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>15411</v>
+        <v>14037</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N16" s="7">
-        <v>25717</v>
+        <v>27971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D17" s="7">
-        <v>160812</v>
+        <v>157522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="I17" s="7">
-        <v>151157</v>
+        <v>154453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="N17" s="7">
-        <v>311970</v>
+        <v>311976</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>98</v>
@@ -1624,49 +1624,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>879</v>
@@ -1785,13 +1785,13 @@
         <v>709334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1800,13 +1800,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1815,13 +1815,13 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CE947E-196B-4FA3-A3D2-D1199D17F84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDA4E69-BD84-4B30-B631-5D91532AAFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1F81C4-383E-4C29-B636-3357EB245D89}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDE1B862-A6A2-4E92-99C6-B72F56961773}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si desayunan cereales o derivados en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,33 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -95,304 +122,292 @@
     <t>15,27%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -499,39 +514,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -583,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,13 +709,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -709,6 +717,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -773,19 +788,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEF9CA6-B43E-49AE-A7BB-5096342A7A85}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1724C8BF-4A41-400D-B3A9-6FE8BBACB48D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -902,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>503</v>
+        <v>10894</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -917,25 +952,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>977</v>
+        <v>15022</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>1479</v>
+        <v>25916</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -953,10 +988,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>10894</v>
+        <v>503</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -968,25 +1003,25 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>15022</v>
+        <v>977</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>25916</v>
+        <v>1479</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1057,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D7" s="7">
-        <v>12175</v>
+        <v>100273</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1107,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>8251</v>
+        <v>93384</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1087,10 +1122,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="N7" s="7">
-        <v>20426</v>
+        <v>193657</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1108,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>100273</v>
+        <v>12175</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1123,10 +1158,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>93384</v>
+        <v>8251</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1138,10 +1173,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>193657</v>
+        <v>20426</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1212,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="D10" s="7">
-        <v>12146</v>
+        <v>230767</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1224,37 +1259,37 @@
         <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>7130</v>
+        <v>180787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>564</v>
       </c>
       <c r="N10" s="7">
-        <v>19276</v>
+        <v>411554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1263,49 +1298,49 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>230767</v>
+        <v>12146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>256</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>180787</v>
+        <v>7130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>564</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>411554</v>
+        <v>19276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,55 +1396,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="D13" s="7">
-        <v>10307</v>
+        <v>160812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="I13" s="7">
-        <v>15411</v>
+        <v>151157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="N13" s="7">
-        <v>25717</v>
+        <v>311970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,49 +1453,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>160812</v>
+        <v>10307</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>151157</v>
+        <v>15411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>407</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>311970</v>
+        <v>25717</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,55 +1551,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>13934</v>
+        <v>157522</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>14037</v>
+        <v>154453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="N16" s="7">
-        <v>27971</v>
+        <v>311976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,49 +1608,49 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>157522</v>
+        <v>13934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>154453</v>
+        <v>14037</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>427</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>311976</v>
+        <v>27971</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,49 +1712,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>61</v>
+        <v>879</v>
       </c>
       <c r="D19" s="7">
-        <v>49065</v>
+        <v>660268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>844</v>
       </c>
       <c r="I19" s="7">
-        <v>45805</v>
+        <v>594804</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>132</v>
+        <v>1723</v>
       </c>
       <c r="N19" s="7">
-        <v>94869</v>
+        <v>1255073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,49 +1763,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>879</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>660269</v>
+        <v>49065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>844</v>
+        <v>71</v>
       </c>
       <c r="I20" s="7">
-        <v>594804</v>
+        <v>45805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>1723</v>
+        <v>132</v>
       </c>
       <c r="N20" s="7">
-        <v>1255073</v>
+        <v>94869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,7 +1817,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -1822,6 +1857,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
